--- a/doc/const_species.xlsx
+++ b/doc/const_species.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="7830"/>
+    <workbookView windowWidth="28710" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>艾尔</t>
   </si>
   <si>
-    <t>station_1001</t>
+    <t>planet_1001</t>
   </si>
   <si>
     <t>legion_1007</t>
@@ -54,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -420,11 +420,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -520,7 +520,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -537,7 +537,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -554,7 +554,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
